--- a/test_results.xlsx
+++ b/test_results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="19">
   <si>
     <t>Test Name</t>
   </si>
@@ -45,6 +45,30 @@
   </si>
   <si>
     <t>The test succeeded</t>
+  </si>
+  <si>
+    <t>2024-11-14 14:24:15</t>
+  </si>
+  <si>
+    <t>2024-11-14 14:25:06</t>
+  </si>
+  <si>
+    <t>2024-11-14 14:34:19</t>
+  </si>
+  <si>
+    <t>2024-11-14 14:34:20</t>
+  </si>
+  <si>
+    <t>2024-11-14 14:43:45</t>
+  </si>
+  <si>
+    <t>2024-11-14 14:44:38</t>
+  </si>
+  <si>
+    <t>2024-11-14 15:07:07</t>
+  </si>
+  <si>
+    <t>2024-11-14 15:07:08</t>
   </si>
 </sst>
 </file>
@@ -52,7 +76,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="9">
+  <fonts count="33">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -79,6 +103,126 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -131,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -145,6 +289,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -189,12 +357,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2667648" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -202,7 +408,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n" s="0">
-        <v>10.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="2">
@@ -245,6 +451,174 @@
       </c>
       <c r="D10" t="s" s="0">
         <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="13">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s" s="14">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s" s="15">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s" s="16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="17">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s" s="18">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s" s="19">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s" s="20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="21">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s" s="22">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s" s="23">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s" s="24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="25">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s" s="26">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s" s="27">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s" s="28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="29">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s" s="30">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s" s="31">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s" s="32">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="33">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s" s="34">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s" s="35">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s" s="36">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/test_results.xlsx
+++ b/test_results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="26">
   <si>
     <t>Test Name</t>
   </si>
@@ -69,6 +69,27 @@
   </si>
   <si>
     <t>2024-11-14 15:07:08</t>
+  </si>
+  <si>
+    <t>2024-11-14 19:27:08</t>
+  </si>
+  <si>
+    <t>2024-11-14 19:27:57</t>
+  </si>
+  <si>
+    <t>2024-11-14 19:27:59</t>
+  </si>
+  <si>
+    <t>2024-11-14 19:29:00</t>
+  </si>
+  <si>
+    <t>2024-11-14 19:29:02</t>
+  </si>
+  <si>
+    <t>2024-11-14 20:05:22</t>
+  </si>
+  <si>
+    <t>2024-11-14 20:05:23</t>
   </si>
 </sst>
 </file>
@@ -76,7 +97,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="33">
+  <fonts count="45">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -103,6 +124,66 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -275,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -313,6 +394,18 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -395,12 +488,88 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2667648" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2667648" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -408,7 +577,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n" s="0">
-        <v>34.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="2">
@@ -619,6 +788,118 @@
       </c>
       <c r="D34" t="s" s="0">
         <v>18</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="37">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s" s="38">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s" s="39">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s" s="40">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="41">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s" s="42">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s" s="43">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s" s="44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="45">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s" s="46">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s" s="47">
+        <v>6</v>
+      </c>
+      <c r="D48" t="s" s="48">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D55" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D57" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D58" t="s" s="0">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
